--- a/iqx-server/food_safety_data.xlsx
+++ b/iqx-server/food_safety_data.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_1B3305B391E6E8BF891C879EEAA941CB50B8C015" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2481A2BF-F099-4E83-984C-DB7B10F1EFBD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
   <si>
     <t>Section</t>
   </si>
@@ -34,37 +51,64 @@
     <t>Planning</t>
   </si>
   <si>
+    <t>Management Commitment</t>
+  </si>
+  <si>
+    <t>HACCP</t>
+  </si>
+  <si>
+    <t>Identification of biological, chemical, and physical hazards</t>
+  </si>
+  <si>
+    <t>How is cooling monitored?</t>
+  </si>
+  <si>
     <t>Initial Days</t>
   </si>
   <si>
-    <t>Management Commitment</t>
-  </si>
-  <si>
     <t>Food Safety Policy</t>
   </si>
   <si>
-    <t>HACCP</t>
-  </si>
-  <si>
     <t>GMP</t>
   </si>
   <si>
-    <t>Identification of biological, chemical, and physical hazards</t>
-  </si>
-  <si>
     <t>Risk assessment methodologies</t>
   </si>
   <si>
-    <t>How is cooling monitored?</t>
-  </si>
-  <si>
     <t>How is Risk assessment methodologies monitored?</t>
+  </si>
+  <si>
+    <t>Fully Operational</t>
+  </si>
+  <si>
+    <t>Supplier Management</t>
+  </si>
+  <si>
+    <t>Supply Chain Audit</t>
+  </si>
+  <si>
+    <t>Implementation of control measures</t>
+  </si>
+  <si>
+    <t>Retail Food Safety Audit</t>
+  </si>
+  <si>
+    <t>Cross-contamination prevention measures</t>
+  </si>
+  <si>
+    <t>Record Keeping</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>FSMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -105,9 +149,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -126,15 +168,81 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0D37224-1882-4010-8E41-438B8211D9DE}" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E21" xr:uid="{B0D37224-1882-4010-8E41-438B8211D9DE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{ABE7A342-18FC-4330-9C5B-E71A6F93D0EE}" name="Section"/>
+    <tableColumn id="2" xr3:uid="{48F8A5CF-1C2F-4153-A812-9580266B3CC7}" name="Domain"/>
+    <tableColumn id="3" xr3:uid="{086441EF-957B-4BC7-B48A-8A20A5A39929}" name="Framework"/>
+    <tableColumn id="4" xr3:uid="{77E4AB12-9EAC-43CC-BC63-A2D9D8C39F9C}" name="Control"/>
+    <tableColumn id="5" xr3:uid="{54A313BF-A63C-4C37-9B79-530AB1EC2F66}" name="Question"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +280,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -206,6 +314,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,9 +349,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,12 +525,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -444,16 +563,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,16 +580,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,16 +597,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,30 +614,30 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -526,16 +645,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -543,16 +662,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -560,22 +679,229 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>